--- a/output/fit_clients/fit_round_496.xlsx
+++ b/output/fit_clients/fit_round_496.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1604198922.717372</v>
+        <v>1879598520.605416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09593397193765543</v>
+        <v>0.08364110198961884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04189600735677064</v>
+        <v>0.03059701488560329</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>802099403.7719799</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1771677813.392556</v>
+        <v>2494579828.933523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1842883550187214</v>
+        <v>0.1659535596459841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04736749642287778</v>
+        <v>0.04705195062331588</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>885838911.4132501</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4395742075.274671</v>
+        <v>4235730026.306151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.152043889482609</v>
+        <v>0.1292003961985795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02638455377390946</v>
+        <v>0.02994405600695647</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>179</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2197871079.887157</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3048128044.179785</v>
+        <v>2659155015.610644</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07108749982365821</v>
+        <v>0.08759242424055949</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04182176399099973</v>
+        <v>0.03893353587891479</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1524064088.754003</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1811290029.790673</v>
+        <v>2553874333.587237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1472005501250222</v>
+        <v>0.1410985595906088</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04980647498304184</v>
+        <v>0.03672342934593902</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>905645064.9398113</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3126013252.349699</v>
+        <v>2104545844.883925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09278849248903472</v>
+        <v>0.08384743258339866</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03868533659976196</v>
+        <v>0.04897976517766494</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>156</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1563006578.930169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3615243928.549878</v>
+        <v>3811447984.65828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2008961483882311</v>
+        <v>0.1704207947681285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02907038723822445</v>
+        <v>0.0313110399628268</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1807622084.708803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1952437702.048268</v>
+        <v>1832980788.308954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1232600106259091</v>
+        <v>0.1906404668188168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02756023428797157</v>
+        <v>0.02329572816676248</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>976218884.2578889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5904756932.731245</v>
+        <v>5080604672.506155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1598703997984584</v>
+        <v>0.1564414979475924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04355801608939301</v>
+        <v>0.04175502460555174</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>209</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2952378635.787252</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3733693508.669664</v>
+        <v>3400448380.233343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.189581043772005</v>
+        <v>0.176843653860978</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0333023852932333</v>
+        <v>0.04640552866199484</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1866846748.431673</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2067875949.598678</v>
+        <v>2965580939.070189</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1695041564491328</v>
+        <v>0.1913066117355842</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04406686840185519</v>
+        <v>0.03465082191768798</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1033937907.46057</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4813503827.768169</v>
+        <v>3360336045.929962</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09201543343367539</v>
+        <v>0.06761656685966266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02838533024417617</v>
+        <v>0.02229885981360002</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>167</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2406751927.518241</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3083684140.982166</v>
+        <v>2635701432.943639</v>
       </c>
       <c r="F14" t="n">
-        <v>0.159028102139292</v>
+        <v>0.1873731338810383</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03655071699964697</v>
+        <v>0.03376595533577651</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1541842098.894158</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541928925.792622</v>
+        <v>1747857581.920193</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09913150262194531</v>
+        <v>0.07276217213789532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04563294153077414</v>
+        <v>0.04785342817548073</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>770964557.9206718</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2251424298.06745</v>
+        <v>2565487233.214491</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0720463981315185</v>
+        <v>0.09733679724169027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04297527307130371</v>
+        <v>0.04093208523315248</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1125712202.092714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4707846884.546309</v>
+        <v>3823431984.912821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.112968222710596</v>
+        <v>0.15713385392195</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04340589977482878</v>
+        <v>0.04705632308976501</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2353923441.928812</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2461865868.511593</v>
+        <v>3128506531.631114</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1649222199734341</v>
+        <v>0.1329458024884701</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02884403739554021</v>
+        <v>0.02732486275404933</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>163</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1230933003.505315</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1308815022.969089</v>
+        <v>1226431060.117308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1442081163748489</v>
+        <v>0.1601652922739546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02034438977876712</v>
+        <v>0.02741494320737623</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>654407615.9176928</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2150675411.518846</v>
+        <v>2184267982.301062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1267815717387268</v>
+        <v>0.126224811090865</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02913274187099257</v>
+        <v>0.02366003299015912</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1075337716.064727</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1906091299.643735</v>
+        <v>2509523012.193174</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0996199632282659</v>
+        <v>0.08884357149562198</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04525583743975017</v>
+        <v>0.03402167293848208</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>953045694.7791497</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2503606316.503958</v>
+        <v>3533046742.250059</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1372327072623838</v>
+        <v>0.1086165163086772</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04738136053737905</v>
+        <v>0.04573115012660934</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>137</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1251803249.530866</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1008948532.657997</v>
+        <v>1470903510.224277</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1433308178694888</v>
+        <v>0.1382110350628029</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05343298822598921</v>
+        <v>0.05480000653031394</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>504474335.0173457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3363345654.807314</v>
+        <v>3058220254.754838</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1459002996935745</v>
+        <v>0.1056302680982473</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03498695254957811</v>
+        <v>0.03433655154083961</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1681672838.234453</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>906954176.7670941</v>
+        <v>967188229.9505683</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1031364619192204</v>
+        <v>0.1162592277181424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02449472550878184</v>
+        <v>0.02875102596399972</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>453477173.7896728</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1098362131.240486</v>
+        <v>1131521514.007895</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09948980393370206</v>
+        <v>0.08387761692896788</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02912464660045954</v>
+        <v>0.02720514751419422</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>549181061.8075675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4274286224.932416</v>
+        <v>2997334229.092217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1475194495131958</v>
+        <v>0.15011047152429</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02146251781494414</v>
+        <v>0.026249265432551</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2137143108.99872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2938916346.928739</v>
+        <v>2617603128.912516</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1418444705287342</v>
+        <v>0.1512609374181058</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03597927564745081</v>
+        <v>0.03031195944324752</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>161</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1469458179.412179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3617268680.413447</v>
+        <v>5878269202.321513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09683358860067666</v>
+        <v>0.1514847031653078</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03214004641628442</v>
+        <v>0.04572401767526035</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>219</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1808634383.557544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1704937164.996348</v>
+        <v>1961799900.923234</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1122756106416457</v>
+        <v>0.0993270613354609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02559366684013691</v>
+        <v>0.02517217170956433</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>852468586.3489298</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1295314936.671494</v>
+        <v>1115482781.060429</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09815415600419236</v>
+        <v>0.08802956325498795</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03642432445458347</v>
+        <v>0.03535638223356705</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>647657397.3926618</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1294630034.23831</v>
+        <v>1517802970.113786</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1144492609682011</v>
+        <v>0.1117521118348555</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03655713622786817</v>
+        <v>0.02430903222719306</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>647315042.9410653</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2659819040.237495</v>
+        <v>1965858592.94207</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1592240042547968</v>
+        <v>0.1502102477065273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04755059482150899</v>
+        <v>0.04019731623712157</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>152</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1329909544.742326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1453471592.135138</v>
+        <v>957447479.7030286</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09799223550336829</v>
+        <v>0.107711664221413</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02831763249659901</v>
+        <v>0.01856238475349578</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>726735759.6231686</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137369864.304632</v>
+        <v>1008559496.597521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1077318055880332</v>
+        <v>0.0787956787159025</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0378073602746074</v>
+        <v>0.04306832409982262</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>568684920.6455599</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2804209955.330854</v>
+        <v>2384358669.745958</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1520711398912803</v>
+        <v>0.1687619441125338</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02696514340453332</v>
+        <v>0.02788888102446428</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>125</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1402104975.302144</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1903485210.917734</v>
+        <v>2807813759.460891</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07403340114233549</v>
+        <v>0.08373556595738715</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03147786436330192</v>
+        <v>0.03947149660953832</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>135</v>
-      </c>
-      <c r="J37" t="n">
-        <v>951742619.4946667</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1851772042.533963</v>
+        <v>1770490144.59943</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149144071508767</v>
+        <v>0.09334126916747182</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03021376424832512</v>
+        <v>0.02611320766260559</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>925886020.8552314</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1557977849.19926</v>
+        <v>1913137498.490776</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1248509613824391</v>
+        <v>0.117359347392492</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02702077519154832</v>
+        <v>0.02401559312387255</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>778988986.2485204</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1401483354.122766</v>
+        <v>1751218844.404587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1421814089929162</v>
+        <v>0.1059606332973945</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0379505018763404</v>
+        <v>0.03782939768268449</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>700741667.9268484</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2421789400.102888</v>
+        <v>2071558647.225217</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1549523818917305</v>
+        <v>0.1412660817959323</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04600495975188088</v>
+        <v>0.03334887501494722</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1210894733.054445</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3261371095.470984</v>
+        <v>3672591518.807516</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1166212718329097</v>
+        <v>0.1146166990700158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04159155053076025</v>
+        <v>0.03364186377050071</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1630685526.177789</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2154598403.565273</v>
+        <v>2753306470.416837</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1305281829913955</v>
+        <v>0.1884834261256192</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01945205426770599</v>
+        <v>0.01614183223398117</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>171</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1077299285.212449</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1996316665.534731</v>
+        <v>1634141203.303733</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06827497880686896</v>
+        <v>0.07966459467847145</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02488813567555048</v>
+        <v>0.03575638995235968</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>998158438.3917964</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1569940861.918955</v>
+        <v>1639165846.220732</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1848681666783666</v>
+        <v>0.1685373988327233</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03435871565081411</v>
+        <v>0.03706622541952746</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>784970378.4901396</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5306875546.596587</v>
+        <v>4718254876.797164</v>
       </c>
       <c r="F46" t="n">
-        <v>0.147176402170406</v>
+        <v>0.1400574233350401</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05895467676617694</v>
+        <v>0.04669268850716189</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>177</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2653437817.689416</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4123831540.005177</v>
+        <v>4370058454.952208</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1560265144442338</v>
+        <v>0.193691358380754</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05041744254363284</v>
+        <v>0.04648643989727553</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>137</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2061915776.183595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3105835916.351695</v>
+        <v>4114089868.963645</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09496206431817611</v>
+        <v>0.06876072936852352</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03173824161276352</v>
+        <v>0.03277078922955226</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>161</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1552918044.515016</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1463737175.365356</v>
+        <v>1944414689.973595</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1628520584943179</v>
+        <v>0.1852838845526697</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03045561501044969</v>
+        <v>0.04004883398117506</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>731868625.355993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2615586154.523609</v>
+        <v>3795568743.729121</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1302502509035848</v>
+        <v>0.1322467878049166</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04023483491980129</v>
+        <v>0.0495628856203113</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>169</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1307793164.463272</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1011395461.807372</v>
+        <v>1038773598.394034</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1518254407019432</v>
+        <v>0.1675902468066975</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03751046217747851</v>
+        <v>0.04838604584125551</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>505697813.0469924</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3803638134.872168</v>
+        <v>5276448949.871367</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157484594086646</v>
+        <v>0.08450015078470965</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04195196422857825</v>
+        <v>0.04046498573714081</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>204</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1901819135.490822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3708752269.660849</v>
+        <v>2471621546.497813</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1737654649806402</v>
+        <v>0.1892431640836661</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03216597063185819</v>
+        <v>0.03431020173244199</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1854376118.370286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4354718779.479517</v>
+        <v>4830961766.504918</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1146000191614822</v>
+        <v>0.1070253879493638</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04978516130892675</v>
+        <v>0.03549288038625083</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2177359481.704735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3993154624.214366</v>
+        <v>4096619819.489278</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1390380150635795</v>
+        <v>0.1926148122972404</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02269201949069284</v>
+        <v>0.02887043434181029</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1996577286.767977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1504836010.32014</v>
+        <v>1674106368.697437</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1032348599193014</v>
+        <v>0.15572183465816</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04371643904699841</v>
+        <v>0.05741777124591056</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>752418046.7328821</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4140174034.787114</v>
+        <v>4215210274.693394</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1212708484014654</v>
+        <v>0.1439475063789786</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02337285956756483</v>
+        <v>0.01962682463934941</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>157</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2070087117.55259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1273613146.652809</v>
+        <v>1222194172.579523</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668482508665343</v>
+        <v>0.1544852608210922</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03688287386470927</v>
+        <v>0.03392678010797043</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>636806625.1423279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5242819820.521343</v>
+        <v>3807026322.265633</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1199057396495528</v>
+        <v>0.09862099113758704</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04421559397150426</v>
+        <v>0.03884336391228423</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2621409826.292051</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3781912248.530376</v>
+        <v>3280897404.991336</v>
       </c>
       <c r="F60" t="n">
-        <v>0.153126591573945</v>
+        <v>0.1631293353340909</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03156578718298754</v>
+        <v>0.03226878411452867</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1890956276.660514</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3201419288.555629</v>
+        <v>2419992604.41624</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1318814646096245</v>
+        <v>0.1462126867737518</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02047219063598681</v>
+        <v>0.02497268448412904</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>171</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1600709605.774193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1834606877.033246</v>
+        <v>1515165097.873798</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1571090170658143</v>
+        <v>0.1897277862938014</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04039409986224072</v>
+        <v>0.04754402657034381</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>917303471.8056889</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4654644992.889807</v>
+        <v>3488501245.121433</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08288569817881386</v>
+        <v>0.0907130855046321</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03131787854739171</v>
+        <v>0.03301239830936982</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>143</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2327322529.669953</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4990257157.934817</v>
+        <v>3509107805.94185</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1564967122425334</v>
+        <v>0.1229161223818555</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02786882394767067</v>
+        <v>0.03436059899816082</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>154</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2495128684.493803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3669982018.794186</v>
+        <v>4443493499.388628</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1518543802974552</v>
+        <v>0.161416414301933</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02648309422448201</v>
+        <v>0.0289192795545661</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>178</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1834991047.703802</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5451218223.206444</v>
+        <v>4688725600.92287</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1065026085549454</v>
+        <v>0.124439636100826</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04840143769040649</v>
+        <v>0.03339944797322807</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2725609162.928729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3513198050.460887</v>
+        <v>2869265938.573313</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08442154575601021</v>
+        <v>0.08962916888600614</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04881253050693362</v>
+        <v>0.04342540809325592</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>159</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1756599000.032067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4430669705.62327</v>
+        <v>4103373896.148375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.10842475682004</v>
+        <v>0.1445606700700348</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03856522243478572</v>
+        <v>0.04197487057657524</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2215334874.713693</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2459039364.884451</v>
+        <v>2309300706.843575</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1708958478714974</v>
+        <v>0.1674503557204493</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05384114482271738</v>
+        <v>0.04086252185146268</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1229519746.758201</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2782344712.389772</v>
+        <v>2988361367.42554</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07954697663331201</v>
+        <v>0.06395970182255917</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03513964491770608</v>
+        <v>0.042815620517271</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>142</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1391172319.002997</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4346413567.253897</v>
+        <v>5218226899.170556</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1528871545390092</v>
+        <v>0.1767997259077085</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02557465987242552</v>
+        <v>0.02530392648577263</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>181</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2173206840.563828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1919854341.235856</v>
+        <v>2179652856.791963</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07598008460588657</v>
+        <v>0.07485006651667761</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03412587859439806</v>
+        <v>0.04567630127930409</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>959927129.920832</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2359428619.336813</v>
+        <v>3200038098.200883</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0856683199864345</v>
+        <v>0.0919897441326155</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03694505800585599</v>
+        <v>0.0367686390673363</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>187</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1179714364.33627</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2684602590.933883</v>
+        <v>3173451062.048805</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1502371531085277</v>
+        <v>0.1352886458673843</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02139340247751647</v>
+        <v>0.03547913277507421</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>169</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1342301388.169144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1886753384.058777</v>
+        <v>2344786627.836359</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159859104762309</v>
+        <v>0.1465870965767813</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03791308175713497</v>
+        <v>0.03609365895411328</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>943376666.8223093</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5167597422.449569</v>
+        <v>4739573877.189322</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1046016325242749</v>
+        <v>0.1091758890957113</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02496915669452646</v>
+        <v>0.0332536895673108</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2583798744.937236</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1819241615.420078</v>
+        <v>2109240814.890948</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1198142812980921</v>
+        <v>0.1806762362850083</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02953807363232626</v>
+        <v>0.02392337210576051</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>909620842.5981027</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4723166975.111249</v>
+        <v>4095071871.004547</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08834827649081639</v>
+        <v>0.1176797723333818</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05283723937051133</v>
+        <v>0.0491691155907106</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>172</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2361583401.552364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1916131036.036582</v>
+        <v>1341580064.002009</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1302557953002298</v>
+        <v>0.1429185987391284</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03301863684008303</v>
+        <v>0.0281309977775715</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>958065625.0354891</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4328731004.507292</v>
+        <v>3719620707.896238</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08947581393638475</v>
+        <v>0.1032470041138992</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02346038715242409</v>
+        <v>0.02623842066938555</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2164365518.085946</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4523577388.035405</v>
+        <v>4064789037.422617</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1147326891969709</v>
+        <v>0.1072489557929713</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02442564625832373</v>
+        <v>0.03234939964651139</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2261788676.700175</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5452714242.912413</v>
+        <v>3546178304.932833</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1461361287524743</v>
+        <v>0.1939306412004523</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02515476287864658</v>
+        <v>0.01882644260866708</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>174</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2726357080.166349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1865879939.824518</v>
+        <v>1709398600.780321</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1540991291847035</v>
+        <v>0.1114354767708533</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03535811523564272</v>
+        <v>0.03187948212296565</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>932939938.5818523</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2437094006.829065</v>
+        <v>1948027168.171124</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0953366558668909</v>
+        <v>0.1028000376142104</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03578113144427384</v>
+        <v>0.04045366687665383</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1218546944.42024</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3057473007.047227</v>
+        <v>2399174135.424896</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1819023040732687</v>
+        <v>0.1508188363494983</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0383802633203591</v>
+        <v>0.04622642589293476</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>186</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1528736570.022318</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2767789161.708481</v>
+        <v>2602746827.926505</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1139319926194265</v>
+        <v>0.1405590013434125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0256564754194139</v>
+        <v>0.0241065888240676</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>61</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1383894715.276918</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1126483676.39856</v>
+        <v>1337159638.028551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1466340909380822</v>
+        <v>0.1304442096870004</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03513528789907937</v>
+        <v>0.02971284861399717</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>563241874.9833907</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3023401006.967885</v>
+        <v>2525675308.765523</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1413148781639056</v>
+        <v>0.1109137765325016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02434102305506783</v>
+        <v>0.03024919199393958</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>197</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1511700536.278585</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3271726768.694099</v>
+        <v>2711567251.893876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1055186811612149</v>
+        <v>0.1231816497796506</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03357489527384504</v>
+        <v>0.03404332374475987</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>169</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1635863402.562193</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1463338142.700565</v>
+        <v>2018904064.728607</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1238122092583953</v>
+        <v>0.1328606961296283</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0490759719525885</v>
+        <v>0.03498580627151606</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>731669043.3941587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1674126036.27845</v>
+        <v>1907364108.697079</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1453931929611481</v>
+        <v>0.1303401493150194</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04647711421040758</v>
+        <v>0.0465234094713372</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>837063033.8580847</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2283345955.662583</v>
+        <v>2395734880.03197</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07503425012763411</v>
+        <v>0.1087005275217568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02945632401744437</v>
+        <v>0.0303242143372483</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1141672945.427012</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3895427656.965077</v>
+        <v>5002309996.001143</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08713396566645182</v>
+        <v>0.09154823559926249</v>
       </c>
       <c r="G93" t="n">
-        <v>0.047790935877823</v>
+        <v>0.04726396413418019</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1947713835.865492</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1700899187.880333</v>
+        <v>1620421724.548884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372530038815405</v>
+        <v>0.117834850909107</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03023901804806585</v>
+        <v>0.04232182418703554</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>850449553.3944348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2396377809.54269</v>
+        <v>2631155124.88306</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1161980580595469</v>
+        <v>0.09672364368682504</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03327531014136489</v>
+        <v>0.03719256018773649</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>121</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1198188948.456643</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614314415.752145</v>
+        <v>1759996417.64124</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1146145728719613</v>
+        <v>0.1286133478182916</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03268708322016803</v>
+        <v>0.0286894094780719</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>807157236.0425916</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3866895963.649882</v>
+        <v>4043452697.885402</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1745528666431349</v>
+        <v>0.1647668306761431</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02253699848866707</v>
+        <v>0.02117681778292563</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>159</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1933448027.533983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3739512459.04982</v>
+        <v>3548611674.840073</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09065480790282279</v>
+        <v>0.1294711658744195</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03165406199403543</v>
+        <v>0.0242680695433473</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1869756264.395984</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3154689561.292404</v>
+        <v>2911105555.345845</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1460648006543818</v>
+        <v>0.1352576956272417</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02440990831336362</v>
+        <v>0.03423551840658962</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1577344777.797318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4647251014.370532</v>
+        <v>3574941022.846817</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368849551745475</v>
+        <v>0.1114645261834543</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02220209890397901</v>
+        <v>0.02128442673775763</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2323625629.56043</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2434873212.997729</v>
+        <v>2970055615.450585</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1797680264776755</v>
+        <v>0.1613610921099661</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03596779918871714</v>
+        <v>0.03948010639262955</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>200</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1217436620.901729</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_496.xlsx
+++ b/output/fit_clients/fit_round_496.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1879598520.605416</v>
+        <v>2214235480.65971</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08364110198961884</v>
+        <v>0.1036490808419269</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03059701488560329</v>
+        <v>0.04525974255411595</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2494579828.933523</v>
+        <v>2049657834.32631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1659535596459841</v>
+        <v>0.1700482884911419</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04705195062331588</v>
+        <v>0.03804888516962079</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4235730026.306151</v>
+        <v>4500511730.579049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1292003961985795</v>
+        <v>0.1100056230330727</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02994405600695647</v>
+        <v>0.03778532529876983</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2659155015.610644</v>
+        <v>3923548486.463405</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08759242424055949</v>
+        <v>0.09743818472801237</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03893353587891479</v>
+        <v>0.04806919133911938</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2553874333.587237</v>
+        <v>2152950045.051773</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1410985595906088</v>
+        <v>0.1282844858922002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03672342934593902</v>
+        <v>0.04336524749738222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2104545844.883925</v>
+        <v>2801178829.261567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08384743258339866</v>
+        <v>0.09643261407101615</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04897976517766494</v>
+        <v>0.03666844376216256</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3811447984.65828</v>
+        <v>2560726430.038448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1704207947681285</v>
+        <v>0.1728523896973852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0313110399628268</v>
+        <v>0.02867155429030437</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832980788.308954</v>
+        <v>2095441617.819171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1906404668188168</v>
+        <v>0.1754319004343868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02329572816676248</v>
+        <v>0.0244025784777953</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5080604672.506155</v>
+        <v>5148732310.745201</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1564414979475924</v>
+        <v>0.1945275801280846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04175502460555174</v>
+        <v>0.03380347607645148</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3400448380.233343</v>
+        <v>3883416674.834364</v>
       </c>
       <c r="F11" t="n">
-        <v>0.176843653860978</v>
+        <v>0.1769443991130516</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04640552866199484</v>
+        <v>0.03056857454727023</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2965580939.070189</v>
+        <v>3181081315.879327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913066117355842</v>
+        <v>0.126049226287533</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03465082191768798</v>
+        <v>0.05289941167774573</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3360336045.929962</v>
+        <v>4135269549.956176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06761656685966266</v>
+        <v>0.09185530360865014</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02229885981360002</v>
+        <v>0.02837865267716144</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2635701432.943639</v>
+        <v>3858879308.913702</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1873731338810383</v>
+        <v>0.1364750443451673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03376595533577651</v>
+        <v>0.04286778497814922</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1747857581.920193</v>
+        <v>1259470361.129076</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07276217213789532</v>
+        <v>0.08683807827946698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04785342817548073</v>
+        <v>0.04579871671915214</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2565487233.214491</v>
+        <v>2701241694.94056</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09733679724169027</v>
+        <v>0.1090182500791335</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04093208523315248</v>
+        <v>0.05018999143470301</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3823431984.912821</v>
+        <v>4226194105.589861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15713385392195</v>
+        <v>0.12392538300786</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04705632308976501</v>
+        <v>0.0438858790905229</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3128506531.631114</v>
+        <v>3561824526.882143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1329458024884701</v>
+        <v>0.1726595643090775</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02732486275404933</v>
+        <v>0.02422831295038167</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1226431060.117308</v>
+        <v>1122853887.130179</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1601652922739546</v>
+        <v>0.1672988474836372</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02741494320737623</v>
+        <v>0.02311495927540923</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2184267982.301062</v>
+        <v>1795070935.314776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126224811090865</v>
+        <v>0.1506762845786427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02366003299015912</v>
+        <v>0.02731913280062248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2509523012.193174</v>
+        <v>2251910738.816364</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08884357149562198</v>
+        <v>0.07628699730708108</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03402167293848208</v>
+        <v>0.04616260453054917</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3533046742.250059</v>
+        <v>3575249042.58037</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1086165163086772</v>
+        <v>0.08904012148895835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04573115012660934</v>
+        <v>0.03623170270382792</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1470903510.224277</v>
+        <v>1278945182.631221</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1382110350628029</v>
+        <v>0.1180276310812434</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05480000653031394</v>
+        <v>0.04526086268519118</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3058220254.754838</v>
+        <v>3020098649.991035</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1056302680982473</v>
+        <v>0.1095637760265067</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03433655154083961</v>
+        <v>0.03585801178158326</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>967188229.9505683</v>
+        <v>1033399074.663459</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1162592277181424</v>
+        <v>0.0852186505300442</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02875102596399972</v>
+        <v>0.02897016653629401</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1131521514.007895</v>
+        <v>1398597872.175378</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08387761692896788</v>
+        <v>0.1239463302486426</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02720514751419422</v>
+        <v>0.02876233722550494</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2997334229.092217</v>
+        <v>3964571100.093504</v>
       </c>
       <c r="F27" t="n">
-        <v>0.15011047152429</v>
+        <v>0.111139781235056</v>
       </c>
       <c r="G27" t="n">
-        <v>0.026249265432551</v>
+        <v>0.02469289844652241</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2617603128.912516</v>
+        <v>2511472181.170674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1512609374181058</v>
+        <v>0.1408720853230674</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03031195944324752</v>
+        <v>0.04590174849934605</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5878269202.321513</v>
+        <v>4656277041.196198</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1514847031653078</v>
+        <v>0.127621669025589</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04572401767526035</v>
+        <v>0.04148001383194772</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1961799900.923234</v>
+        <v>2076523387.602881</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0993270613354609</v>
+        <v>0.1289140883872331</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02517217170956433</v>
+        <v>0.03524558363376741</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1115482781.060429</v>
+        <v>1017704885.752447</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08802956325498795</v>
+        <v>0.09333171455907763</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03535638223356705</v>
+        <v>0.04161765567737642</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1517802970.113786</v>
+        <v>1864862404.721743</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1117521118348555</v>
+        <v>0.08388378254823027</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02430903222719306</v>
+        <v>0.0338902522273995</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1965858592.94207</v>
+        <v>2253966068.935159</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1502102477065273</v>
+        <v>0.1353957773605075</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04019731623712157</v>
+        <v>0.04653251823363663</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>957447479.7030286</v>
+        <v>956691725.0893803</v>
       </c>
       <c r="F34" t="n">
-        <v>0.107711664221413</v>
+        <v>0.1037177870947061</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01856238475349578</v>
+        <v>0.02690969094347895</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008559496.597521</v>
+        <v>1083955455.615255</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0787956787159025</v>
+        <v>0.104969425722026</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04306832409982262</v>
+        <v>0.03630615944765084</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2384358669.745958</v>
+        <v>1967346088.987581</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1687619441125338</v>
+        <v>0.1632508126614891</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02788888102446428</v>
+        <v>0.02598924845148465</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2807813759.460891</v>
+        <v>2049424473.414259</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08373556595738715</v>
+        <v>0.07335814680090055</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03947149660953832</v>
+        <v>0.02597536834476587</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770490144.59943</v>
+        <v>1936115304.545248</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09334126916747182</v>
+        <v>0.109133841250785</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02611320766260559</v>
+        <v>0.02895186192989499</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1913137498.490776</v>
+        <v>1839590369.420702</v>
       </c>
       <c r="F39" t="n">
-        <v>0.117359347392492</v>
+        <v>0.1605330515375529</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02401559312387255</v>
+        <v>0.02938349581343479</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1751218844.404587</v>
+        <v>1285099401.81572</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1059606332973945</v>
+        <v>0.1545853856971181</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03782939768268449</v>
+        <v>0.04493944223183779</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2071558647.225217</v>
+        <v>2436954733.846129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1412660817959323</v>
+        <v>0.1098196289056749</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03334887501494722</v>
+        <v>0.0358898848647973</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3672591518.807516</v>
+        <v>3796591225.231794</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1146166990700158</v>
+        <v>0.0874229014026373</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03364186377050071</v>
+        <v>0.03717468874428582</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2753306470.416837</v>
+        <v>2116939261.228292</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1884834261256192</v>
+        <v>0.1793886655816614</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01614183223398117</v>
+        <v>0.02418372495428821</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1634141203.303733</v>
+        <v>1524317274.33482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07966459467847145</v>
+        <v>0.1024953635057975</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03575638995235968</v>
+        <v>0.03663637055394225</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1639165846.220732</v>
+        <v>2228679586.156783</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1685373988327233</v>
+        <v>0.1585801936733901</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03706622541952746</v>
+        <v>0.0496375221807672</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4718254876.797164</v>
+        <v>5168016682.305681</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400574233350401</v>
+        <v>0.1435570408521987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04669268850716189</v>
+        <v>0.05144634684260273</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4370058454.952208</v>
+        <v>3714410796.334139</v>
       </c>
       <c r="F47" t="n">
-        <v>0.193691358380754</v>
+        <v>0.1236835966890928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04648643989727553</v>
+        <v>0.05196622654479295</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4114089868.963645</v>
+        <v>4194712659.81768</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06876072936852352</v>
+        <v>0.1068440513139338</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03277078922955226</v>
+        <v>0.03396246954701822</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1944414689.973595</v>
+        <v>1604992168.739325</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1852838845526697</v>
+        <v>0.1497261819743632</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04004883398117506</v>
+        <v>0.02861309396995955</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3795568743.729121</v>
+        <v>4210399556.471307</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1322467878049166</v>
+        <v>0.1725188238063122</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0495628856203113</v>
+        <v>0.05108767049922689</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038773598.394034</v>
+        <v>1205666975.452106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1675902468066975</v>
+        <v>0.1315429800249737</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04838604584125551</v>
+        <v>0.04818500004447565</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5276448949.871367</v>
+        <v>5302879945.289488</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08450015078470965</v>
+        <v>0.1007772208422351</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04046498573714081</v>
+        <v>0.03853043264983941</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2471621546.497813</v>
+        <v>2755549634.837027</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1892431640836661</v>
+        <v>0.1587796735896349</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03431020173244199</v>
+        <v>0.02861186445809877</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4830961766.504918</v>
+        <v>3936572229.948985</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1070253879493638</v>
+        <v>0.1456949639054903</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03549288038625083</v>
+        <v>0.03224475160362995</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4096619819.489278</v>
+        <v>4169235412.813482</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1926148122972404</v>
+        <v>0.2239667435075753</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02887043434181029</v>
+        <v>0.02480767623818871</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1674106368.697437</v>
+        <v>1891109477.260075</v>
       </c>
       <c r="F56" t="n">
-        <v>0.15572183465816</v>
+        <v>0.1464918232126521</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05741777124591056</v>
+        <v>0.04135023506054217</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4215210274.693394</v>
+        <v>3448417478.323226</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1439475063789786</v>
+        <v>0.1762770731178084</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01962682463934941</v>
+        <v>0.02069598655436056</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1222194172.579523</v>
+        <v>1781691435.080329</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1544852608210922</v>
+        <v>0.1949707939024005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03392678010797043</v>
+        <v>0.03979092411609998</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3807026322.265633</v>
+        <v>3656975916.541405</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09862099113758704</v>
+        <v>0.08082133809772375</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03884336391228423</v>
+        <v>0.0375937876023608</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3280897404.991336</v>
+        <v>2541945643.388175</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1631293353340909</v>
+        <v>0.1248173055144874</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03226878411452867</v>
+        <v>0.02669993674709017</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2419992604.41624</v>
+        <v>2451511414.76812</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1462126867737518</v>
+        <v>0.1755194425842141</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02497268448412904</v>
+        <v>0.02193822683692464</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1515165097.873798</v>
+        <v>2026681360.501247</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1897277862938014</v>
+        <v>0.1593930535369265</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04754402657034381</v>
+        <v>0.049368321194736</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3488501245.121433</v>
+        <v>4650170372.696449</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0907130855046321</v>
+        <v>0.08687442356337871</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03301239830936982</v>
+        <v>0.04737830586316203</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3509107805.94185</v>
+        <v>4274755236.225108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1229161223818555</v>
+        <v>0.1233307076464134</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03436059899816082</v>
+        <v>0.02643706206277042</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4443493499.388628</v>
+        <v>3828563973.19187</v>
       </c>
       <c r="F65" t="n">
-        <v>0.161416414301933</v>
+        <v>0.1289373134465778</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0289192795545661</v>
+        <v>0.02580191708350701</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4688725600.92287</v>
+        <v>5461996928.761425</v>
       </c>
       <c r="F66" t="n">
-        <v>0.124439636100826</v>
+        <v>0.1191504277737147</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03339944797322807</v>
+        <v>0.04286751417211718</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2869265938.573313</v>
+        <v>3324198190.617867</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08962916888600614</v>
+        <v>0.100718675018307</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04342540809325592</v>
+        <v>0.04712839358213551</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4103373896.148375</v>
+        <v>5498599950.744308</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1445606700700348</v>
+        <v>0.1560464058868528</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04197487057657524</v>
+        <v>0.05181369826037355</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2309300706.843575</v>
+        <v>1879011258.443246</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1674503557204493</v>
+        <v>0.1441753417349571</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04086252185146268</v>
+        <v>0.03891846159958473</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2988361367.42554</v>
+        <v>2743187560.934682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06395970182255917</v>
+        <v>0.0838420626515483</v>
       </c>
       <c r="G70" t="n">
-        <v>0.042815620517271</v>
+        <v>0.03392703424770884</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5218226899.170556</v>
+        <v>4042520443.613775</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1767997259077085</v>
+        <v>0.1155012402241927</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02530392648577263</v>
+        <v>0.027923841285695</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2179652856.791963</v>
+        <v>1912315897.671671</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07485006651667761</v>
+        <v>0.0657228557499064</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04567630127930409</v>
+        <v>0.03317178689777986</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3200038098.200883</v>
+        <v>3528560132.74929</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0919897441326155</v>
+        <v>0.08660580912122445</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0367686390673363</v>
+        <v>0.05257022068365742</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3173451062.048805</v>
+        <v>2498312268.008004</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1352886458673843</v>
+        <v>0.1471372157152225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03547913277507421</v>
+        <v>0.02363812093547946</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2344786627.836359</v>
+        <v>2430279015.435155</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1465870965767813</v>
+        <v>0.1622066234127566</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03609365895411328</v>
+        <v>0.02709167153678447</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4739573877.189322</v>
+        <v>5125207613.722173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1091758890957113</v>
+        <v>0.09041770611691725</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0332536895673108</v>
+        <v>0.03409791189077505</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2109240814.890948</v>
+        <v>1823345575.349642</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1806762362850083</v>
+        <v>0.1734683025471791</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02392337210576051</v>
+        <v>0.0296393289253522</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4095071871.004547</v>
+        <v>3394058536.357164</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1176797723333818</v>
+        <v>0.1018838500965818</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0491691155907106</v>
+        <v>0.04832699831585088</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1341580064.002009</v>
+        <v>1448065826.518569</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1429185987391284</v>
+        <v>0.1552843938138544</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0281309977775715</v>
+        <v>0.03020873364415277</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3719620707.896238</v>
+        <v>4051765871.027503</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1032470041138992</v>
+        <v>0.07147305650935989</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02623842066938555</v>
+        <v>0.02509934064681946</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4064789037.422617</v>
+        <v>4774846746.178723</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1072489557929713</v>
+        <v>0.1010927963178032</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03234939964651139</v>
+        <v>0.02432122726944541</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3546178304.932833</v>
+        <v>4733161476.367304</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1939306412004523</v>
+        <v>0.1718421095774085</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01882644260866708</v>
+        <v>0.02612011837082717</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1709398600.780321</v>
+        <v>1892995110.150908</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1114354767708533</v>
+        <v>0.1294209639792649</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03187948212296565</v>
+        <v>0.03476511276212617</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1948027168.171124</v>
+        <v>2599056594.318489</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1028000376142104</v>
+        <v>0.1143450113740407</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04045366687665383</v>
+        <v>0.0364677175542177</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2399174135.424896</v>
+        <v>2396816410.631664</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1508188363494983</v>
+        <v>0.1796966653228517</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04622642589293476</v>
+        <v>0.0567666656618035</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2602746827.926505</v>
+        <v>1758216031.438823</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1405590013434125</v>
+        <v>0.1635350596921369</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0241065888240676</v>
+        <v>0.02606185249652333</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1337159638.028551</v>
+        <v>1167592338.011698</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1304442096870004</v>
+        <v>0.1495713660932411</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02971284861399717</v>
+        <v>0.03880354455459757</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2525675308.765523</v>
+        <v>2339189065.657057</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1109137765325016</v>
+        <v>0.1514553634291166</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03024919199393958</v>
+        <v>0.0393569966963582</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2711567251.893876</v>
+        <v>3370870063.726004</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1231816497796506</v>
+        <v>0.1032631530263416</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03404332374475987</v>
+        <v>0.02662882225808326</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2018904064.728607</v>
+        <v>1616084136.845697</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1328606961296283</v>
+        <v>0.1061765156115618</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03498580627151606</v>
+        <v>0.04908948949378952</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1907364108.697079</v>
+        <v>1735075395.717303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1303401493150194</v>
+        <v>0.1671757088652254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0465234094713372</v>
+        <v>0.0400254303467923</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2395734880.03197</v>
+        <v>1845104777.607356</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1087005275217568</v>
+        <v>0.07982069874342122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0303242143372483</v>
+        <v>0.04409069063339113</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5002309996.001143</v>
+        <v>3724915375.195399</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09154823559926249</v>
+        <v>0.1395991120486219</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04726396413418019</v>
+        <v>0.05310108871269519</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620421724.548884</v>
+        <v>1558186810.121733</v>
       </c>
       <c r="F94" t="n">
-        <v>0.117834850909107</v>
+        <v>0.1591273817075141</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04232182418703554</v>
+        <v>0.04012753720900232</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2631155124.88306</v>
+        <v>2268724017.76555</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09672364368682504</v>
+        <v>0.1191677928054462</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03719256018773649</v>
+        <v>0.04564446769735304</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1759996417.64124</v>
+        <v>2354346181.245577</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1286133478182916</v>
+        <v>0.1051097446542255</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0286894094780719</v>
+        <v>0.04443860397220408</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4043452697.885402</v>
+        <v>4312529837.012696</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1647668306761431</v>
+        <v>0.1139771682553642</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02117681778292563</v>
+        <v>0.02262913306341925</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3548611674.840073</v>
+        <v>2792760329.626177</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1294711658744195</v>
+        <v>0.09539530270541285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0242680695433473</v>
+        <v>0.02525327971500829</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2911105555.345845</v>
+        <v>2663697972.717497</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1352576956272417</v>
+        <v>0.1210274065216329</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03423551840658962</v>
+        <v>0.03170417329615804</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3574941022.846817</v>
+        <v>3142516826.194778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1114645261834543</v>
+        <v>0.1711190062266523</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02128442673775763</v>
+        <v>0.02132355342611099</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2970055615.450585</v>
+        <v>2561195495.805749</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1613610921099661</v>
+        <v>0.1753185945452669</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03948010639262955</v>
+        <v>0.04515401359004109</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_496.xlsx
+++ b/output/fit_clients/fit_round_496.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2214235480.65971</v>
+        <v>1632554668.150698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1036490808419269</v>
+        <v>0.1040132345281748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04525974255411595</v>
+        <v>0.03819055309456756</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2049657834.32631</v>
+        <v>1819456731.364877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1700482884911419</v>
+        <v>0.1396070316579437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03804888516962079</v>
+        <v>0.0340377496265957</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4500511730.579049</v>
+        <v>3658834713.848269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1100056230330727</v>
+        <v>0.1669587664729499</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03778532529876983</v>
+        <v>0.02509476843147788</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>250</v>
+      </c>
+      <c r="J4" t="n">
+        <v>495</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.4189931728325</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3923548486.463405</v>
+        <v>3185686482.750309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09743818472801237</v>
+        <v>0.08204855557633603</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04806919133911938</v>
+        <v>0.03715663994314711</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>210</v>
+      </c>
+      <c r="J5" t="n">
+        <v>494</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2152950045.051773</v>
+        <v>2424450379.974218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1282844858922002</v>
+        <v>0.1125004589196683</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04336524749738222</v>
+        <v>0.05384522433723046</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2801178829.261567</v>
+        <v>3118146111.674642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09643261407101615</v>
+        <v>0.0847474293548942</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03666844376216256</v>
+        <v>0.03608332583507883</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2560726430.038448</v>
+        <v>3301324050.557542</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1728523896973852</v>
+        <v>0.1759401013552502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02867155429030437</v>
+        <v>0.02896922821812313</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>142</v>
+      </c>
+      <c r="J8" t="n">
+        <v>494</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2095441617.819171</v>
+        <v>1983434896.031823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1754319004343868</v>
+        <v>0.1495731969307877</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0244025784777953</v>
+        <v>0.02949712432409089</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5148732310.745201</v>
+        <v>5869838812.015953</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1945275801280846</v>
+        <v>0.153109614081199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03380347607645148</v>
+        <v>0.05256973605998629</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>374</v>
+      </c>
+      <c r="J10" t="n">
+        <v>495</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25.05964937183083</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3883416674.834364</v>
+        <v>2948346521.594438</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1769443991130516</v>
+        <v>0.1263669856183499</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03056857454727023</v>
+        <v>0.0428914119461417</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>207</v>
+      </c>
+      <c r="J11" t="n">
+        <v>494</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3181081315.879327</v>
+        <v>2115842807.452917</v>
       </c>
       <c r="F12" t="n">
-        <v>0.126049226287533</v>
+        <v>0.1574315274293296</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05289941167774573</v>
+        <v>0.03845634380799161</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4135269549.956176</v>
+        <v>3670248905.508764</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09185530360865014</v>
+        <v>0.08608814890179353</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02837865267716144</v>
+        <v>0.022231871550473</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>256</v>
+      </c>
+      <c r="J13" t="n">
+        <v>495</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24.66900411334627</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3858879308.913702</v>
+        <v>3032217258.488269</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1364750443451673</v>
+        <v>0.1167329729299264</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04286778497814922</v>
+        <v>0.04202502922725525</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1259470361.129076</v>
+        <v>1678303911.86769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08683807827946698</v>
+        <v>0.09110348800442128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04579871671915214</v>
+        <v>0.043935268592812</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2701241694.94056</v>
+        <v>2000290336.112252</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1090182500791335</v>
+        <v>0.07430818562715519</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05018999143470301</v>
+        <v>0.04040447969066587</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4226194105.589861</v>
+        <v>4595406235.330125</v>
       </c>
       <c r="F17" t="n">
-        <v>0.12392538300786</v>
+        <v>0.1745954507300885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0438858790905229</v>
+        <v>0.04169345807357813</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>242</v>
+      </c>
+      <c r="J17" t="n">
+        <v>495</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25.71558724235095</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3561824526.882143</v>
+        <v>3859447490.493212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1726595643090775</v>
+        <v>0.1789165159661023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02422831295038167</v>
+        <v>0.03152596723602042</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>132</v>
+      </c>
+      <c r="J18" t="n">
+        <v>496</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1122853887.130179</v>
+        <v>1289599249.294792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1672988474836372</v>
+        <v>0.1452442241818313</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02311495927540923</v>
+        <v>0.02412942689168964</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1795070935.314776</v>
+        <v>2441816450.115901</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1506762845786427</v>
+        <v>0.1275946468268939</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02731913280062248</v>
+        <v>0.02690208897217321</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2251910738.816364</v>
+        <v>2139007127.630235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07628699730708108</v>
+        <v>0.07966647767400972</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04616260453054917</v>
+        <v>0.02837992555000747</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3575249042.58037</v>
+        <v>2559558324.672502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08904012148895835</v>
+        <v>0.1297210740402661</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03623170270382792</v>
+        <v>0.04188215327831878</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>493</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1278945182.631221</v>
+        <v>1483910248.579176</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1180276310812434</v>
+        <v>0.1718982824998241</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04526086268519118</v>
+        <v>0.04039975315559612</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3020098649.991035</v>
+        <v>3450504073.614345</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1095637760265067</v>
+        <v>0.1327915114673071</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03585801178158326</v>
+        <v>0.02434895481154904</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>156</v>
+      </c>
+      <c r="J24" t="n">
+        <v>496</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1033399074.663459</v>
+        <v>1325031808.00572</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0852186505300442</v>
+        <v>0.07452878606237116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02897016653629401</v>
+        <v>0.01908117793680478</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1398597872.175378</v>
+        <v>974008298.043764</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1239463302486426</v>
+        <v>0.08163011527864225</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02876233722550494</v>
+        <v>0.0377422836612784</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3964571100.093504</v>
+        <v>4660192313.248258</v>
       </c>
       <c r="F27" t="n">
-        <v>0.111139781235056</v>
+        <v>0.1048010563206479</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02469289844652241</v>
+        <v>0.02159977523965505</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>221</v>
+      </c>
+      <c r="J27" t="n">
+        <v>496</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2511472181.170674</v>
+        <v>3031729581.336007</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1408720853230674</v>
+        <v>0.1439388559449359</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04590174849934605</v>
+        <v>0.04037970660153816</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4656277041.196198</v>
+        <v>3786097427.856804</v>
       </c>
       <c r="F29" t="n">
-        <v>0.127621669025589</v>
+        <v>0.1337309488868707</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04148001383194772</v>
+        <v>0.03194347429498564</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>389</v>
+      </c>
+      <c r="J29" t="n">
+        <v>495</v>
+      </c>
+      <c r="K29" t="n">
+        <v>24.68220565865272</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2076523387.602881</v>
+        <v>1646248182.531652</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1289140883872331</v>
+        <v>0.09577693522579324</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03524558363376741</v>
+        <v>0.0329576757977692</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017704885.752447</v>
+        <v>1449359919.290937</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09333171455907763</v>
+        <v>0.07375170735983257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04161765567737642</v>
+        <v>0.04286546133346206</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1864862404.721743</v>
+        <v>1465969792.525564</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08388378254823027</v>
+        <v>0.08817399539239058</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0338902522273995</v>
+        <v>0.03385199415398959</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2253966068.935159</v>
+        <v>2078545573.149513</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1353957773605075</v>
+        <v>0.1364909312911675</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04653251823363663</v>
+        <v>0.04656388338577416</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>956691725.0893803</v>
+        <v>1080436926.756901</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1037177870947061</v>
+        <v>0.1178966628599261</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02690969094347895</v>
+        <v>0.02058118612266396</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1083955455.615255</v>
+        <v>867213438.1865244</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104969425722026</v>
+        <v>0.1004738684783239</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03630615944765084</v>
+        <v>0.0354819826165002</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1967346088.987581</v>
+        <v>2415484882.851662</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1632508126614891</v>
+        <v>0.1491720578510005</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02598924845148465</v>
+        <v>0.0177416699680636</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2049424473.414259</v>
+        <v>2287931739.9467</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07335814680090055</v>
+        <v>0.1071916247322514</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02597536834476587</v>
+        <v>0.02708542105899651</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1936115304.545248</v>
+        <v>1479055870.353755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.109133841250785</v>
+        <v>0.09944721200499465</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02895186192989499</v>
+        <v>0.02699077317877201</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1839590369.420702</v>
+        <v>1576247248.729509</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1605330515375529</v>
+        <v>0.1400807748837321</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02938349581343479</v>
+        <v>0.02428958649420591</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1285099401.81572</v>
+        <v>1280026876.313632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1545853856971181</v>
+        <v>0.1061740496228485</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04493944223183779</v>
+        <v>0.04457119305144919</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2436954733.846129</v>
+        <v>2657010753.051392</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1098196289056749</v>
+        <v>0.1426925175679037</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0358898848647973</v>
+        <v>0.03265440116540375</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3796591225.231794</v>
+        <v>3694214857.245778</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0874229014026373</v>
+        <v>0.09729040336567875</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03717468874428582</v>
+        <v>0.03335468297468901</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>496</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2116939261.228292</v>
+        <v>2089548614.667764</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1793886655816614</v>
+        <v>0.124112696029179</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02418372495428821</v>
+        <v>0.02303459913619396</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1524317274.33482</v>
+        <v>1565352450.566874</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1024953635057975</v>
+        <v>0.09761534947686372</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03663637055394225</v>
+        <v>0.02252323048671115</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2228679586.156783</v>
+        <v>1799062826.608987</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1585801936733901</v>
+        <v>0.187716214476392</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0496375221807672</v>
+        <v>0.04349348447645691</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5168016682.305681</v>
+        <v>3705366947.52703</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1435570408521987</v>
+        <v>0.1163635268291214</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05144634684260273</v>
+        <v>0.05306434874550094</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>291</v>
+      </c>
+      <c r="J46" t="n">
+        <v>496</v>
+      </c>
+      <c r="K46" t="n">
+        <v>26.36764402295116</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3714410796.334139</v>
+        <v>3673734602.124558</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1236835966890928</v>
+        <v>0.1314891472588694</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05196622654479295</v>
+        <v>0.05233043391069965</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>225</v>
+      </c>
+      <c r="J47" t="n">
+        <v>496</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4194712659.81768</v>
+        <v>3304538471.920278</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1068440513139338</v>
+        <v>0.1021871752776609</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03396246954701822</v>
+        <v>0.03332832069683093</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>248</v>
+      </c>
+      <c r="J48" t="n">
+        <v>494</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1604992168.739325</v>
+        <v>1940437823.246003</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1497261819743632</v>
+        <v>0.1845005058356703</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02861309396995955</v>
+        <v>0.03758678631435641</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4210399556.471307</v>
+        <v>3302233152.603749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1725188238063122</v>
+        <v>0.1434865356284503</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05108767049922689</v>
+        <v>0.03416782884777435</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1205666975.452106</v>
+        <v>1450559664.399045</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1315429800249737</v>
+        <v>0.1883762035623679</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04818500004447565</v>
+        <v>0.04767569334673919</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5302879945.289488</v>
+        <v>4952936223.966191</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1007772208422351</v>
+        <v>0.1284072942632473</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03853043264983941</v>
+        <v>0.04359462214033421</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>276</v>
+      </c>
+      <c r="J52" t="n">
+        <v>495</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.93555018831156</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2755549634.837027</v>
+        <v>3593384509.375216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1587796735896349</v>
+        <v>0.1953632867888773</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02861186445809877</v>
+        <v>0.02754475051740378</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>79</v>
+      </c>
+      <c r="J53" t="n">
+        <v>496</v>
+      </c>
+      <c r="K53" t="n">
+        <v>47.65371078081402</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3936572229.948985</v>
+        <v>3153052167.630514</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1456949639054903</v>
+        <v>0.1203807565277343</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03224475160362995</v>
+        <v>0.03257443877042814</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>261</v>
+      </c>
+      <c r="J54" t="n">
+        <v>495</v>
+      </c>
+      <c r="K54" t="n">
+        <v>20.59472045415574</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4169235412.813482</v>
+        <v>3700179580.549335</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2239667435075753</v>
+        <v>0.1897446891007669</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02480767623818871</v>
+        <v>0.02009699175304837</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>245</v>
+      </c>
+      <c r="J55" t="n">
+        <v>496</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.19826928962559</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1891109477.260075</v>
+        <v>1611327231.721233</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1464918232126521</v>
+        <v>0.1050481726193567</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04135023506054217</v>
+        <v>0.0534062120375989</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3448417478.323226</v>
+        <v>3292999334.859869</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1762770731178084</v>
+        <v>0.1587431043822533</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02069598655436056</v>
+        <v>0.02595229154845318</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1781691435.080329</v>
+        <v>1612284153.285075</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1949707939024005</v>
+        <v>0.1339649039918981</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03979092411609998</v>
+        <v>0.02393216585392593</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3656975916.541405</v>
+        <v>4424616679.063354</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08082133809772375</v>
+        <v>0.07994364353468741</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0375937876023608</v>
+        <v>0.03015686222401757</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>243</v>
+      </c>
+      <c r="J59" t="n">
+        <v>496</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2541945643.388175</v>
+        <v>2977407475.745003</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248173055144874</v>
+        <v>0.1791756164500355</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02669993674709017</v>
+        <v>0.02768789751535761</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2451511414.76812</v>
+        <v>2776063447.990692</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1755194425842141</v>
+        <v>0.1652440085372994</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02193822683692464</v>
+        <v>0.02086330593354927</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2026681360.501247</v>
+        <v>1836948749.840217</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1593930535369265</v>
+        <v>0.1834066198278524</v>
       </c>
       <c r="G62" t="n">
-        <v>0.049368321194736</v>
+        <v>0.03192312810489276</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4650170372.696449</v>
+        <v>4355969963.507621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08687442356337871</v>
+        <v>0.1042588855301131</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04737830586316203</v>
+        <v>0.04209923299359877</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>247</v>
+      </c>
+      <c r="J63" t="n">
+        <v>496</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4274755236.225108</v>
+        <v>5453182415.432701</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1233307076464134</v>
+        <v>0.1280108927699431</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02643706206277042</v>
+        <v>0.02423306254856037</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>247</v>
+      </c>
+      <c r="J64" t="n">
+        <v>495</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25.81115358481939</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3828563973.19187</v>
+        <v>5899039158.635384</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1289373134465778</v>
+        <v>0.1180484668719058</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02580191708350701</v>
+        <v>0.0306016569761391</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>346</v>
+      </c>
+      <c r="J65" t="n">
+        <v>495</v>
+      </c>
+      <c r="K65" t="n">
+        <v>24.45204641186987</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5461996928.761425</v>
+        <v>4519766105.589949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1191504277737147</v>
+        <v>0.1388278988746673</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04286751417211718</v>
+        <v>0.04325466800518135</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>245</v>
+      </c>
+      <c r="J66" t="n">
+        <v>496</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,16 +2800,25 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3324198190.617867</v>
+        <v>2684314611.643627</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100718675018307</v>
+        <v>0.08729850741030223</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04712839358213551</v>
+        <v>0.0364381976011458</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>496</v>
+      </c>
+      <c r="K67" t="n">
+        <v>43.5735405934057</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5498599950.744308</v>
+        <v>4960342339.777699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1560464058868528</v>
+        <v>0.09818180969844566</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05181369826037355</v>
+        <v>0.03591639288245858</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>269</v>
+      </c>
+      <c r="J68" t="n">
+        <v>495</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.37254340383811</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1879011258.443246</v>
+        <v>1845683077.920439</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1441753417349571</v>
+        <v>0.163975152921394</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03891846159958473</v>
+        <v>0.05729532499792827</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2743187560.934682</v>
+        <v>3199945949.473623</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0838420626515483</v>
+        <v>0.09051701693625394</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03392703424770884</v>
+        <v>0.04166480463433933</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4042520443.613775</v>
+        <v>5162886784.161667</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1155012402241927</v>
+        <v>0.1598862619427736</v>
       </c>
       <c r="G71" t="n">
-        <v>0.027923841285695</v>
+        <v>0.0293824635477244</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>332</v>
+      </c>
+      <c r="J71" t="n">
+        <v>496</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1912315897.671671</v>
+        <v>1436122808.384564</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0657228557499064</v>
+        <v>0.09424892360262732</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03317178689777986</v>
+        <v>0.03460847176331584</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3528560132.74929</v>
+        <v>2400883266.108184</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08660580912122445</v>
+        <v>0.08368439717308966</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05257022068365742</v>
+        <v>0.04289623403475038</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2498312268.008004</v>
+        <v>2650086018.335694</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1471372157152225</v>
+        <v>0.1422902093400654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02363812093547946</v>
+        <v>0.02444083993864742</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>146</v>
+      </c>
+      <c r="J74" t="n">
+        <v>495</v>
+      </c>
+      <c r="K74" t="n">
+        <v>20.57188400572275</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2430279015.435155</v>
+        <v>2370076772.065335</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1622066234127566</v>
+        <v>0.1309943044899968</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02709167153678447</v>
+        <v>0.03739197398894811</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5125207613.722173</v>
+        <v>4921918465.543245</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09041770611691725</v>
+        <v>0.09285798972213537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03409791189077505</v>
+        <v>0.02809438038934275</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>238</v>
+      </c>
+      <c r="J76" t="n">
+        <v>495</v>
+      </c>
+      <c r="K76" t="n">
+        <v>25.79754666599132</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1823345575.349642</v>
+        <v>1603404901.980762</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1734683025471791</v>
+        <v>0.1286678422027254</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0296393289253522</v>
+        <v>0.0218449379254202</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3394058536.357164</v>
+        <v>4361046860.404394</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1018838500965818</v>
+        <v>0.1160389816244229</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04832699831585088</v>
+        <v>0.04540244650807109</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>245</v>
+      </c>
+      <c r="J78" t="n">
+        <v>496</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.58448699785521</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1448065826.518569</v>
+        <v>1702339573.789929</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1552843938138544</v>
+        <v>0.1255438711808645</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03020873364415277</v>
+        <v>0.03882789487242118</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4051765871.027503</v>
+        <v>4923381462.102874</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07147305650935989</v>
+        <v>0.08106666612686056</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02509934064681946</v>
+        <v>0.02704426573092041</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>242</v>
+      </c>
+      <c r="J80" t="n">
+        <v>496</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4774846746.178723</v>
+        <v>3286985039.236394</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1010927963178032</v>
+        <v>0.1135482327106387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02432122726944541</v>
+        <v>0.0282650338351267</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>232</v>
+      </c>
+      <c r="J81" t="n">
+        <v>494</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4733161476.367304</v>
+        <v>4517466597.105797</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1718421095774085</v>
+        <v>0.2154119524065021</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02612011837082717</v>
+        <v>0.02445187432456435</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>324</v>
+      </c>
+      <c r="J82" t="n">
+        <v>496</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1892995110.150908</v>
+        <v>1673867905.691161</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1294209639792649</v>
+        <v>0.1216279491910945</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03476511276212617</v>
+        <v>0.03269209237039774</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599056594.318489</v>
+        <v>2215535829.303835</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143450113740407</v>
+        <v>0.09707882808869728</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0364677175542177</v>
+        <v>0.04631515694140538</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2396816410.631664</v>
+        <v>2439104191.622531</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1796966653228517</v>
+        <v>0.1382241977972323</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0567666656618035</v>
+        <v>0.03820628949325149</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1758216031.438823</v>
+        <v>2700071976.850904</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1635350596921369</v>
+        <v>0.1352551063239956</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02606185249652333</v>
+        <v>0.0217034473104932</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1167592338.011698</v>
+        <v>1434968180.018832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1495713660932411</v>
+        <v>0.1250862718181904</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03880354455459757</v>
+        <v>0.04206029417537761</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2339189065.657057</v>
+        <v>3578687643.051147</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1514553634291166</v>
+        <v>0.1735037496789402</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0393569966963582</v>
+        <v>0.02625058364241121</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>496</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3370870063.726004</v>
+        <v>2263903942.591617</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1032631530263416</v>
+        <v>0.1515346231582465</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02662882225808326</v>
+        <v>0.02669347956590412</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="n">
+        <v>24.37686256740189</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1616084136.845697</v>
+        <v>1927038983.147133</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1061765156115618</v>
+        <v>0.1085707058794183</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04908948949378952</v>
+        <v>0.04185106728710169</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1735075395.717303</v>
+        <v>1899711513.480977</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1671757088652254</v>
+        <v>0.158941593920513</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0400254303467923</v>
+        <v>0.05415464339663219</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1845104777.607356</v>
+        <v>2831257165.793943</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07982069874342122</v>
+        <v>0.0793973642977269</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04409069063339113</v>
+        <v>0.03311919821613894</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3724915375.195399</v>
+        <v>4411258198.408889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1395991120486219</v>
+        <v>0.1103203455824326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05310108871269519</v>
+        <v>0.03577848283158488</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>238</v>
+      </c>
+      <c r="J93" t="n">
+        <v>496</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1558186810.121733</v>
+        <v>1566192963.425198</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1591273817075141</v>
+        <v>0.1227010962442955</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04012753720900232</v>
+        <v>0.03944537490225772</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2268724017.76555</v>
+        <v>2946104612.200709</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1191677928054462</v>
+        <v>0.1360310370672224</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04564446769735304</v>
+        <v>0.03278209262800714</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2354346181.245577</v>
+        <v>1704204715.549209</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1051097446542255</v>
+        <v>0.1226190716949651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04443860397220408</v>
+        <v>0.04623848723692573</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4312529837.012696</v>
+        <v>3365777192.61277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1139771682553642</v>
+        <v>0.1320773089245997</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02262913306341925</v>
+        <v>0.02766504183387007</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>258</v>
+      </c>
+      <c r="J97" t="n">
+        <v>495</v>
+      </c>
+      <c r="K97" t="n">
+        <v>22.66870040783556</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2792760329.626177</v>
+        <v>3012620851.529002</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09539530270541285</v>
+        <v>0.1100159590409015</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02525327971500829</v>
+        <v>0.02354383496729961</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>129</v>
+      </c>
+      <c r="J98" t="n">
+        <v>495</v>
+      </c>
+      <c r="K98" t="n">
+        <v>25.83286088117835</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2663697972.717497</v>
+        <v>2227678014.016429</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210274065216329</v>
+        <v>0.107593210843871</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03170417329615804</v>
+        <v>0.03018728513330405</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3142516826.194778</v>
+        <v>3733947465.403825</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1711190062266523</v>
+        <v>0.1322769108142147</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02132355342611099</v>
+        <v>0.02792844755344054</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>231</v>
+      </c>
+      <c r="J100" t="n">
+        <v>496</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2561195495.805749</v>
+        <v>3488049308.872838</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1753185945452669</v>
+        <v>0.1482650739500367</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04515401359004109</v>
+        <v>0.05234400166016155</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>496</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
